--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Il7</t>
+  </si>
+  <si>
+    <t>Il2rg</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il7</t>
-  </si>
-  <si>
-    <t>Il2rg</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2744363333333333</v>
+        <v>0.05230133333333333</v>
       </c>
       <c r="H2">
-        <v>0.8233090000000001</v>
+        <v>0.156904</v>
       </c>
       <c r="I2">
-        <v>0.2264196034936386</v>
+        <v>0.05937840830565061</v>
       </c>
       <c r="J2">
-        <v>0.2264196034936386</v>
+        <v>0.0593784083056506</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N2">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O2">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P2">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q2">
-        <v>6.343640852558668</v>
+        <v>2.114666738790222</v>
       </c>
       <c r="R2">
-        <v>57.09276767302801</v>
+        <v>19.032000649112</v>
       </c>
       <c r="S2">
-        <v>0.02673409851370132</v>
+        <v>0.01341207961563261</v>
       </c>
       <c r="T2">
-        <v>0.02673409851370132</v>
+        <v>0.01341207961563261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2744363333333333</v>
+        <v>0.05230133333333333</v>
       </c>
       <c r="H3">
-        <v>0.8233090000000001</v>
+        <v>0.156904</v>
       </c>
       <c r="I3">
-        <v>0.2264196034936386</v>
+        <v>0.05937840830565061</v>
       </c>
       <c r="J3">
-        <v>0.2264196034936386</v>
+        <v>0.0593784083056506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.316803</v>
       </c>
       <c r="O3">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P3">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q3">
-        <v>0.3948958623474444</v>
+        <v>0.07525818421244444</v>
       </c>
       <c r="R3">
-        <v>3.554062761127001</v>
+        <v>0.677323657912</v>
       </c>
       <c r="S3">
-        <v>0.001664215413833121</v>
+        <v>0.0004773181229316063</v>
       </c>
       <c r="T3">
-        <v>0.001664215413833121</v>
+        <v>0.0004773181229316062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2744363333333333</v>
+        <v>0.05230133333333333</v>
       </c>
       <c r="H4">
-        <v>0.8233090000000001</v>
+        <v>0.156904</v>
       </c>
       <c r="I4">
-        <v>0.2264196034936386</v>
+        <v>0.05937840830565061</v>
       </c>
       <c r="J4">
-        <v>0.2264196034936386</v>
+        <v>0.0593784083056506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N4">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O4">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P4">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q4">
-        <v>18.279504899556</v>
+        <v>3.523595568728889</v>
       </c>
       <c r="R4">
-        <v>164.515544096004</v>
+        <v>31.71236011856</v>
       </c>
       <c r="S4">
-        <v>0.07703558510398764</v>
+        <v>0.02234808134737975</v>
       </c>
       <c r="T4">
-        <v>0.07703558510398766</v>
+        <v>0.02234808134737975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2744363333333333</v>
+        <v>0.05230133333333333</v>
       </c>
       <c r="H5">
-        <v>0.8233090000000001</v>
+        <v>0.156904</v>
       </c>
       <c r="I5">
-        <v>0.2264196034936386</v>
+        <v>0.05937840830565061</v>
       </c>
       <c r="J5">
-        <v>0.2264196034936386</v>
+        <v>0.0593784083056506</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N5">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O5">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P5">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q5">
-        <v>0.8677015468436666</v>
+        <v>0.2587345042284445</v>
       </c>
       <c r="R5">
-        <v>7.809313921593001</v>
+        <v>2.328610538056</v>
       </c>
       <c r="S5">
-        <v>0.003656767331721365</v>
+        <v>0.001640999835278241</v>
       </c>
       <c r="T5">
-        <v>0.003656767331721365</v>
+        <v>0.00164099983527824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2744363333333333</v>
+        <v>0.05230133333333333</v>
       </c>
       <c r="H6">
-        <v>0.8233090000000001</v>
+        <v>0.156904</v>
       </c>
       <c r="I6">
-        <v>0.2264196034936386</v>
+        <v>0.05937840830565061</v>
       </c>
       <c r="J6">
-        <v>0.2264196034936386</v>
+        <v>0.0593784083056506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N6">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O6">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P6">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q6">
-        <v>7.094436180553444</v>
+        <v>1.254549886010667</v>
       </c>
       <c r="R6">
-        <v>63.849925624981</v>
+        <v>11.290948974096</v>
       </c>
       <c r="S6">
-        <v>0.02989818625586017</v>
+        <v>0.007956867455428895</v>
       </c>
       <c r="T6">
-        <v>0.02989818625586017</v>
+        <v>0.007956867455428895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2744363333333333</v>
+        <v>0.05230133333333333</v>
       </c>
       <c r="H7">
-        <v>0.8233090000000001</v>
+        <v>0.156904</v>
       </c>
       <c r="I7">
-        <v>0.2264196034936386</v>
+        <v>0.05937840830565061</v>
       </c>
       <c r="J7">
-        <v>0.2264196034936386</v>
+        <v>0.0593784083056506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N7">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O7">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P7">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q7">
-        <v>20.74613747433189</v>
+        <v>2.135318565306666</v>
       </c>
       <c r="R7">
-        <v>186.715237268987</v>
+        <v>19.21786708775999</v>
       </c>
       <c r="S7">
-        <v>0.08743075087453495</v>
+        <v>0.01354306192899951</v>
       </c>
       <c r="T7">
-        <v>0.08743075087453496</v>
+        <v>0.01354306192899951</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>2.38663</v>
       </c>
       <c r="I8">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178537</v>
       </c>
       <c r="J8">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178536</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N8">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O8">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P8">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q8">
-        <v>18.38911461910667</v>
+        <v>32.16570054809888</v>
       </c>
       <c r="R8">
-        <v>165.50203157196</v>
+        <v>289.4913049328899</v>
       </c>
       <c r="S8">
-        <v>0.07749751494973936</v>
+        <v>0.2040080021736684</v>
       </c>
       <c r="T8">
-        <v>0.07749751494973937</v>
+        <v>0.2040080021736683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>2.38663</v>
       </c>
       <c r="I9">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178537</v>
       </c>
       <c r="J9">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178536</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.316803</v>
       </c>
       <c r="O9">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P9">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q9">
         <v>1.144734615987778</v>
@@ -1013,10 +1013,10 @@
         <v>10.30261154389</v>
       </c>
       <c r="S9">
-        <v>0.004824271850686122</v>
+        <v>0.007260374188881478</v>
       </c>
       <c r="T9">
-        <v>0.004824271850686123</v>
+        <v>0.007260374188881477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>2.38663</v>
       </c>
       <c r="I10">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178537</v>
       </c>
       <c r="J10">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178536</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N10">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O10">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P10">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q10">
-        <v>52.98911438891999</v>
+        <v>53.59658703535555</v>
       </c>
       <c r="R10">
-        <v>476.9020295002799</v>
+        <v>482.3692833182</v>
       </c>
       <c r="S10">
-        <v>0.2233128005119949</v>
+        <v>0.3399314318697862</v>
       </c>
       <c r="T10">
-        <v>0.2233128005119949</v>
+        <v>0.3399314318697861</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>2.38663</v>
       </c>
       <c r="I11">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178537</v>
       </c>
       <c r="J11">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178536</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N11">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O11">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P11">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q11">
-        <v>2.515316294056666</v>
+        <v>3.935549953007778</v>
       </c>
       <c r="R11">
-        <v>22.63784664651</v>
+        <v>35.41994957707</v>
       </c>
       <c r="S11">
-        <v>0.01060033428142552</v>
+        <v>0.02496086420276161</v>
       </c>
       <c r="T11">
-        <v>0.01060033428142552</v>
+        <v>0.02496086420276161</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1169,10 +1169,10 @@
         <v>2.38663</v>
       </c>
       <c r="I12">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178537</v>
       </c>
       <c r="J12">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178536</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N12">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O12">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P12">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q12">
-        <v>20.56554006040778</v>
+        <v>19.08266452384666</v>
       </c>
       <c r="R12">
-        <v>185.08986054367</v>
+        <v>171.74398071462</v>
       </c>
       <c r="S12">
-        <v>0.08666965654914929</v>
+        <v>0.1210300475140867</v>
       </c>
       <c r="T12">
-        <v>0.08666965654914929</v>
+        <v>0.1210300475140867</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>2.38663</v>
       </c>
       <c r="I13">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178537</v>
       </c>
       <c r="J13">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178536</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N13">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O13">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P13">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q13">
-        <v>60.13945442156555</v>
+        <v>32.47983064496666</v>
       </c>
       <c r="R13">
-        <v>541.2550897940899</v>
+        <v>292.3184758046999</v>
       </c>
       <c r="S13">
-        <v>0.2534465831901404</v>
+        <v>0.2060003434686694</v>
       </c>
       <c r="T13">
-        <v>0.2534465831901405</v>
+        <v>0.2060003434686694</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.02078766666666667</v>
+        <v>0.03296933333333333</v>
       </c>
       <c r="H14">
-        <v>0.062363</v>
+        <v>0.098908</v>
       </c>
       <c r="I14">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="J14">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N14">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O14">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P14">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q14">
-        <v>0.4805103241773334</v>
+        <v>1.333028207058222</v>
       </c>
       <c r="R14">
-        <v>4.324592917596001</v>
+        <v>11.997253863524</v>
       </c>
       <c r="S14">
-        <v>0.002025021693689678</v>
+        <v>0.008454609000554416</v>
       </c>
       <c r="T14">
-        <v>0.002025021693689678</v>
+        <v>0.008454609000554416</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.02078766666666667</v>
+        <v>0.03296933333333333</v>
       </c>
       <c r="H15">
-        <v>0.062363</v>
+        <v>0.098908</v>
       </c>
       <c r="I15">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="J15">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.316803</v>
       </c>
       <c r="O15">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P15">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q15">
-        <v>0.02991208727655555</v>
+        <v>0.04744070568044444</v>
       </c>
       <c r="R15">
-        <v>0.269208785489</v>
+        <v>0.426966351124</v>
       </c>
       <c r="S15">
-        <v>0.0001260589473124609</v>
+        <v>0.0003008883196280484</v>
       </c>
       <c r="T15">
-        <v>0.000126058947312461</v>
+        <v>0.0003008883196280484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.02078766666666667</v>
+        <v>0.03296933333333333</v>
       </c>
       <c r="H16">
-        <v>0.062363</v>
+        <v>0.098908</v>
       </c>
       <c r="I16">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="J16">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N16">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O16">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P16">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q16">
-        <v>1.384613509692</v>
+        <v>2.221178494568889</v>
       </c>
       <c r="R16">
-        <v>12.461521587228</v>
+        <v>19.99060645112</v>
       </c>
       <c r="S16">
-        <v>0.005835196984169955</v>
+        <v>0.0140876206464248</v>
       </c>
       <c r="T16">
-        <v>0.005835196984169956</v>
+        <v>0.0140876206464248</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.02078766666666667</v>
+        <v>0.03296933333333333</v>
       </c>
       <c r="H17">
-        <v>0.062363</v>
+        <v>0.098908</v>
       </c>
       <c r="I17">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="J17">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N17">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O17">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P17">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q17">
-        <v>0.06572559217233333</v>
+        <v>0.1630991711124444</v>
       </c>
       <c r="R17">
-        <v>0.591530329551</v>
+        <v>1.467892540012</v>
       </c>
       <c r="S17">
-        <v>0.0002769883252923744</v>
+        <v>0.001034441516517745</v>
       </c>
       <c r="T17">
-        <v>0.0002769883252923744</v>
+        <v>0.001034441516517745</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.02078766666666667</v>
+        <v>0.03296933333333333</v>
       </c>
       <c r="H18">
-        <v>0.062363</v>
+        <v>0.098908</v>
       </c>
       <c r="I18">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="J18">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N18">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O18">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P18">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q18">
-        <v>0.5373806475185555</v>
+        <v>0.7908340139546665</v>
       </c>
       <c r="R18">
-        <v>4.836425827667</v>
+        <v>7.117506125591999</v>
       </c>
       <c r="S18">
-        <v>0.00226469112990895</v>
+        <v>0.005015792116718256</v>
       </c>
       <c r="T18">
-        <v>0.00226469112990895</v>
+        <v>0.005015792116718256</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.02078766666666667</v>
+        <v>0.03296933333333333</v>
       </c>
       <c r="H19">
-        <v>0.062363</v>
+        <v>0.098908</v>
       </c>
       <c r="I19">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="J19">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N19">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O19">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P19">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q19">
-        <v>1.571452967612111</v>
+        <v>1.346046554946666</v>
       </c>
       <c r="R19">
-        <v>14.143076708509</v>
+        <v>12.11441899452</v>
       </c>
       <c r="S19">
-        <v>0.006622597246949351</v>
+        <v>0.008537176676652497</v>
       </c>
       <c r="T19">
-        <v>0.006622597246949352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.1213023333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.363907</v>
-      </c>
-      <c r="I20">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="J20">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>23.115164</v>
-      </c>
-      <c r="N20">
-        <v>69.34549200000001</v>
-      </c>
-      <c r="O20">
-        <v>0.1180732502892685</v>
-      </c>
-      <c r="P20">
-        <v>0.1180732502892685</v>
-      </c>
-      <c r="Q20">
-        <v>2.803923328582667</v>
-      </c>
-      <c r="R20">
-        <v>25.235309957244</v>
-      </c>
-      <c r="S20">
-        <v>0.01181661513213812</v>
-      </c>
-      <c r="T20">
-        <v>0.01181661513213812</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.1213023333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.363907</v>
-      </c>
-      <c r="I21">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="J21">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.438934333333333</v>
-      </c>
-      <c r="N21">
-        <v>4.316803</v>
-      </c>
-      <c r="O21">
-        <v>0.00735013836326181</v>
-      </c>
-      <c r="P21">
-        <v>0.007350138363261811</v>
-      </c>
-      <c r="Q21">
-        <v>0.1745460921467778</v>
-      </c>
-      <c r="R21">
-        <v>1.570914829321</v>
-      </c>
-      <c r="S21">
-        <v>0.0007355921514301064</v>
-      </c>
-      <c r="T21">
-        <v>0.0007355921514301064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.1213023333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.363907</v>
-      </c>
-      <c r="I22">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="J22">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>66.60745199999999</v>
-      </c>
-      <c r="N22">
-        <v>199.822356</v>
-      </c>
-      <c r="O22">
-        <v>0.3402337249749314</v>
-      </c>
-      <c r="P22">
-        <v>0.3402337249749314</v>
-      </c>
-      <c r="Q22">
-        <v>8.079639344987999</v>
-      </c>
-      <c r="R22">
-        <v>72.71675410489199</v>
-      </c>
-      <c r="S22">
-        <v>0.03405014237477889</v>
-      </c>
-      <c r="T22">
-        <v>0.03405014237477889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.1213023333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.363907</v>
-      </c>
-      <c r="I23">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="J23">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.161759</v>
-      </c>
-      <c r="N23">
-        <v>9.485277</v>
-      </c>
-      <c r="O23">
-        <v>0.01615040073959013</v>
-      </c>
-      <c r="P23">
-        <v>0.01615040073959013</v>
-      </c>
-      <c r="Q23">
-        <v>0.3835287441376666</v>
-      </c>
-      <c r="R23">
-        <v>3.451758697239</v>
-      </c>
-      <c r="S23">
-        <v>0.001616310801150876</v>
-      </c>
-      <c r="T23">
-        <v>0.001616310801150876</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.1213023333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.363907</v>
-      </c>
-      <c r="I24">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="J24">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>25.85093633333333</v>
-      </c>
-      <c r="N24">
-        <v>77.552809</v>
-      </c>
-      <c r="O24">
-        <v>0.1320476928434343</v>
-      </c>
-      <c r="P24">
-        <v>0.1320476928434343</v>
-      </c>
-      <c r="Q24">
-        <v>3.135778896084778</v>
-      </c>
-      <c r="R24">
-        <v>28.222010064763</v>
-      </c>
-      <c r="S24">
-        <v>0.01321515890851589</v>
-      </c>
-      <c r="T24">
-        <v>0.01321515890851589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.1213023333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.363907</v>
-      </c>
-      <c r="I25">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="J25">
-        <v>0.100078680845903</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>75.59544766666667</v>
-      </c>
-      <c r="N25">
-        <v>226.786343</v>
-      </c>
-      <c r="O25">
-        <v>0.3861447927895138</v>
-      </c>
-      <c r="P25">
-        <v>0.3861447927895139</v>
-      </c>
-      <c r="Q25">
-        <v>9.169904191344557</v>
-      </c>
-      <c r="R25">
-        <v>82.529137722101</v>
-      </c>
-      <c r="S25">
-        <v>0.03864486147788909</v>
-      </c>
-      <c r="T25">
-        <v>0.03864486147788909</v>
+        <v>0.008537176676652497</v>
       </c>
     </row>
   </sheetData>
